--- a/Banc_de_test&résultats/Determination_zone_non_destruction_capteur.xlsx
+++ b/Banc_de_test&résultats/Determination_zone_non_destruction_capteur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Documents\4ème année GP\Capteurs\2020-2021_GAICH_STEPHEN_Capteur_Graphite-main\2020-2021_GAICH_STEPHEN_Capteur_Graphite\Banc_de_test&amp;résultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E317D8-1F32-4E78-B21D-DA16266185D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC00F9F-9052-4C45-84A4-602070EFC3BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="8" xr2:uid="{7D1CD8B7-097E-4F58-A6FD-015C88BA2AEF}"/>
   </bookViews>
@@ -447,6 +447,39 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,28 +501,16 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -501,29 +522,8 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3991,16 +3991,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>713509</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>767297</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>547254</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601042</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>41563</xdr:rowOff>
+      <xdr:rowOff>23634</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4376,24 +4376,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I6" s="13" t="s">
@@ -4524,20 +4524,20 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="L26" s="19" t="s">
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
+      <c r="L26" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="21"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="32"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
@@ -4584,7 +4584,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="A28" s="34">
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -4637,7 +4637,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="3" t="s">
         <v>1</v>
       </c>
@@ -4686,7 +4686,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="3" t="s">
         <v>49</v>
       </c>
@@ -4714,13 +4714,13 @@
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="J30" s="41"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -4732,7 +4732,7 @@
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
+      <c r="A32" s="34">
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -4785,7 +4785,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
@@ -4834,7 +4834,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="3" t="s">
         <v>49</v>
       </c>
@@ -4862,19 +4862,19 @@
         <f t="shared" si="5"/>
         <v>0.11999999999999997</v>
       </c>
-      <c r="J34" s="41"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="A36" s="33">
         <v>3</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -4927,7 +4927,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
@@ -4976,7 +4976,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
@@ -5004,19 +5004,19 @@
         <f t="shared" si="8"/>
         <v>0.18</v>
       </c>
-      <c r="J38" s="41"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
     <row r="40" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
+      <c r="A40" s="33">
         <v>4</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -5069,7 +5069,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="3" t="s">
         <v>1</v>
       </c>
@@ -5118,7 +5118,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="3" t="s">
         <v>49</v>
       </c>
@@ -5146,19 +5146,19 @@
         <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
-      <c r="J42" s="41"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
     </row>
     <row r="44" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="22">
+      <c r="A44" s="33">
         <v>5</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -5211,7 +5211,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="3" t="s">
         <v>1</v>
       </c>
@@ -5260,7 +5260,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="3" t="s">
         <v>49</v>
       </c>
@@ -5288,19 +5288,19 @@
         <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
-      <c r="J46" s="41"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
     <row r="48" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
+      <c r="A48" s="33">
         <v>6</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -5353,7 +5353,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="3" t="s">
         <v>1</v>
       </c>
@@ -5402,7 +5402,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="3" t="s">
         <v>49</v>
       </c>
@@ -5430,13 +5430,13 @@
         <f t="shared" si="17"/>
         <v>0.21999999999999997</v>
       </c>
-      <c r="J50" s="41"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
@@ -5477,24 +5477,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
@@ -5662,20 +5662,20 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="L30" s="19" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
+      <c r="L30" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="21"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
@@ -5722,7 +5722,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="33">
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -5775,7 +5775,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
@@ -5824,7 +5824,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="3" t="s">
         <v>49</v>
       </c>
@@ -5852,13 +5852,13 @@
         <f t="shared" si="2"/>
         <v>0.47</v>
       </c>
-      <c r="J34" s="41"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -5870,7 +5870,7 @@
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="23">
+      <c r="A36" s="34">
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -5923,7 +5923,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
@@ -6000,19 +6000,19 @@
         <f t="shared" si="4"/>
         <v>9.0000000000000024E-2</v>
       </c>
-      <c r="J38" s="41"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="32"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="21"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
     <row r="40" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
+      <c r="A40" s="33">
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -6065,7 +6065,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="3" t="s">
         <v>1</v>
       </c>
@@ -6118,43 +6118,43 @@
       <c r="B42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="27">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="25">
         <f>ABS(D41-$C$40)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="40">
+      <c r="E42" s="25">
         <f t="shared" ref="E42:H42" si="6">ABS(E41-$C$40)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="40">
+      <c r="F42" s="25">
         <f t="shared" si="6"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="G42" s="40">
+      <c r="G42" s="25">
         <f t="shared" si="6"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="H42" s="40">
+      <c r="H42" s="25">
         <f t="shared" si="6"/>
         <v>6.9999999999999951E-2</v>
       </c>
-      <c r="J42" s="41"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="32"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="21"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
     </row>
     <row r="44" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="22">
+      <c r="A44" s="33">
         <v>4</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -6207,7 +6207,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="3" t="s">
         <v>1</v>
       </c>
@@ -6284,19 +6284,19 @@
         <f t="shared" si="8"/>
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="J46" s="41"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="32"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="21"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
     <row r="48" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
+      <c r="A48" s="33">
         <v>5</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -6349,7 +6349,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="3" t="s">
         <v>1</v>
       </c>
@@ -6426,19 +6426,19 @@
         <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
-      <c r="J50" s="41"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="32"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="21"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
     </row>
     <row r="52" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="22">
+      <c r="A52" s="33">
         <v>6</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -6491,7 +6491,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="3" t="s">
         <v>1</v>
       </c>
@@ -6568,13 +6568,13 @@
         <f t="shared" si="12"/>
         <v>0.26</v>
       </c>
-      <c r="J54" s="41"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="32"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="21"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
@@ -6614,24 +6614,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -6742,24 +6742,24 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -6767,20 +6767,20 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="L16" s="19" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="L16" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -6827,7 +6827,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="33">
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -6880,7 +6880,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
@@ -6957,13 +6957,13 @@
         <f t="shared" si="3"/>
         <v>7.999999999999996E-2</v>
       </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -6971,11 +6971,11 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="33">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -7028,7 +7028,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -7105,51 +7105,51 @@
         <f t="shared" si="6"/>
         <v>5.0000000000000017E-2</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="32"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="21"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="L30" s="19" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
+      <c r="L30" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="21"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
@@ -7196,7 +7196,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="33">
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -7249,7 +7249,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
@@ -7326,13 +7326,13 @@
         <f t="shared" si="10"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="J34" s="41"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="32"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -7344,7 +7344,7 @@
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="A36" s="33">
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -7397,7 +7397,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
@@ -7474,27 +7474,27 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J38" s="41"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="32"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A13:P13"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="L16:P16"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7514,24 +7514,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -7642,24 +7642,24 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -7667,20 +7667,20 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="L16" s="19" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="L16" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -7727,7 +7727,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="33">
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -7780,7 +7780,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
@@ -7857,13 +7857,13 @@
         <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -7875,7 +7875,7 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="33">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -7928,7 +7928,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -8005,51 +8005,51 @@
         <f t="shared" si="6"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="32"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="21"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="L30" s="19" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
+      <c r="L30" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="21"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
@@ -8096,7 +8096,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="33">
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -8149,7 +8149,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
@@ -8226,13 +8226,13 @@
         <f t="shared" si="10"/>
         <v>1.999999999999999E-2</v>
       </c>
-      <c r="J34" s="41"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="32"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -8244,7 +8244,7 @@
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="A36" s="33">
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -8297,7 +8297,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
@@ -8374,27 +8374,27 @@
         <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
-      <c r="J38" s="41"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="32"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A13:P13"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="L16:P16"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8414,24 +8414,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -8542,24 +8542,24 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -8567,20 +8567,20 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="L16" s="19" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="L16" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -8627,7 +8627,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="33">
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -8680,7 +8680,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
@@ -8757,13 +8757,13 @@
         <f t="shared" si="3"/>
         <v>0.42999999999999972</v>
       </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -8775,7 +8775,7 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="33">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -8828,7 +8828,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -8905,51 +8905,51 @@
         <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="32"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="21"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="L30" s="19" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
+      <c r="L30" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="21"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
@@ -8996,7 +8996,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="33">
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -9049,7 +9049,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
@@ -9126,13 +9126,13 @@
         <f t="shared" si="10"/>
         <v>0.26000000000000023</v>
       </c>
-      <c r="J34" s="41"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="32"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -9144,7 +9144,7 @@
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="A36" s="33">
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -9197,7 +9197,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
@@ -9274,27 +9274,27 @@
         <f t="shared" si="14"/>
         <v>0.20999999999999996</v>
       </c>
-      <c r="J38" s="41"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="32"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A13:P13"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="L16:P16"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9314,24 +9314,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -9442,24 +9442,24 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -9467,20 +9467,20 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="L16" s="19" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="L16" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -9527,7 +9527,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="33">
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -9580,7 +9580,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
@@ -9657,13 +9657,13 @@
         <f t="shared" si="3"/>
         <v>0.80000000000000027</v>
       </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -9675,7 +9675,7 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="33">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -9728,7 +9728,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -9805,51 +9805,51 @@
         <f t="shared" si="6"/>
         <v>1.0900000000000003</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="32"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="21"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="L30" s="19" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
+      <c r="L30" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="21"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
@@ -9896,7 +9896,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="33">
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -9949,7 +9949,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
@@ -10026,13 +10026,13 @@
         <f t="shared" si="10"/>
         <v>0.37000000000000011</v>
       </c>
-      <c r="J34" s="41"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="32"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -10044,7 +10044,7 @@
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="A36" s="33">
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -10097,7 +10097,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
@@ -10174,27 +10174,27 @@
         <f t="shared" si="14"/>
         <v>0.24</v>
       </c>
-      <c r="J38" s="41"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="32"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A13:P13"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="L16:P16"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10214,24 +10214,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -10342,24 +10342,24 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -10367,20 +10367,20 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="L16" s="19" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="L16" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -10427,7 +10427,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="33">
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -10480,7 +10480,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
@@ -10557,13 +10557,13 @@
         <f t="shared" si="3"/>
         <v>0.47999999999999976</v>
       </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -10575,7 +10575,7 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="33">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -10628,7 +10628,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -10705,51 +10705,51 @@
         <f t="shared" si="6"/>
         <v>0.69</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="32"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="21"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="L30" s="19" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
+      <c r="L30" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="21"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
@@ -10796,7 +10796,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="33">
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -10849,7 +10849,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
@@ -10926,13 +10926,13 @@
         <f t="shared" si="10"/>
         <v>0.16000000000000014</v>
       </c>
-      <c r="J34" s="41"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="32"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -10944,7 +10944,7 @@
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="A36" s="33">
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -10997,7 +10997,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
@@ -11074,27 +11074,27 @@
         <f t="shared" si="14"/>
         <v>0.22000000000000008</v>
       </c>
-      <c r="J38" s="41"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="32"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A13:P13"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="L16:P16"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11114,24 +11114,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
@@ -11242,24 +11242,24 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -11267,20 +11267,20 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="L16" s="19" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="L16" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -11327,7 +11327,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="33">
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -11380,7 +11380,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
@@ -11457,13 +11457,13 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -11475,7 +11475,7 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="33">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -11528,7 +11528,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
@@ -11605,51 +11605,51 @@
         <f t="shared" si="6"/>
         <v>0.30000000000000027</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="32"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="21"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="L30" s="19" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
+      <c r="L30" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="21"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
@@ -11696,7 +11696,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="33">
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -11749,7 +11749,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
@@ -11826,13 +11826,13 @@
         <f t="shared" si="10"/>
         <v>0.13</v>
       </c>
-      <c r="J34" s="41"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="32"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -11844,7 +11844,7 @@
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="A36" s="33">
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -11897,7 +11897,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
@@ -11974,27 +11974,27 @@
         <f t="shared" si="14"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="J38" s="41"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="32"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A13:P13"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="L16:P16"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12004,66 +12004,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100CC23C-D513-4E3B-A92B-7717816EBF8B}">
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="L58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="L1" s="25" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="L1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="21"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -12071,22 +12071,22 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="36">
-        <v>0</v>
-      </c>
-      <c r="E7" s="37">
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="23">
         <v>1.8800000000000002E-3</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="23">
         <v>2.3500000000000001E-3</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="23">
         <v>3.1333333333333335E-3</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="23">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="23">
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="L7" s="11" t="s">
@@ -12097,33 +12097,33 @@
       <c r="O7" s="10">
         <v>0</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="19">
         <v>1.8800000000000002E-3</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="19">
         <v>2.3500000000000001E-3</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="19">
         <v>3.1333333333333335E-3</v>
       </c>
-      <c r="S7" s="30">
+      <c r="S7" s="19">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="T7" s="38">
+      <c r="T7" s="24">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="33">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="16">
@@ -12144,13 +12144,13 @@
       <c r="I8" s="6">
         <v>12948717.948717937</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="33">
         <v>1</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="18" t="s">
         <v>41</v>
       </c>
       <c r="O8" s="16">
@@ -12171,14 +12171,14 @@
       <c r="T8" s="6">
         <v>51010101.010100991</v>
       </c>
-      <c r="U8" s="31"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="27" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="18" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="16">
@@ -12199,9 +12199,9 @@
       <c r="I9" s="6">
         <v>36418269.230769217</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="27" t="s">
+      <c r="L9" s="33"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="18" t="s">
         <v>42</v>
       </c>
       <c r="O9" s="16">
@@ -12224,9 +12224,9 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="27" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="16">
@@ -12247,9 +12247,9 @@
       <c r="I10" s="6">
         <v>2500057.5652213935</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="27" t="s">
+      <c r="L10" s="33"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="18" t="s">
         <v>43</v>
       </c>
       <c r="O10" s="16">
@@ -12272,9 +12272,9 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="27" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="16">
@@ -12295,9 +12295,9 @@
       <c r="I11" s="6">
         <v>21041666.666666672</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="27" t="s">
+      <c r="L11" s="33"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="18" t="s">
         <v>44</v>
       </c>
       <c r="O11" s="16">
@@ -12320,9 +12320,9 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="27" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="16">
@@ -12343,9 +12343,9 @@
       <c r="I12" s="6">
         <v>2245991.6831595115</v>
       </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="27" t="s">
+      <c r="L12" s="33"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="O12" s="16">
@@ -12368,9 +12368,9 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="27" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="16">
@@ -12391,9 +12391,9 @@
       <c r="I13" s="6">
         <v>7882157.8382596783</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="27" t="s">
+      <c r="L13" s="33"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="18" t="s">
         <v>45</v>
       </c>
       <c r="O13" s="16">
@@ -12416,9 +12416,9 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="27" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="16">
@@ -12439,9 +12439,9 @@
       <c r="I14" s="6">
         <v>2480962.9083763175</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="27" t="s">
+      <c r="L14" s="33"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="18" t="s">
         <v>46</v>
       </c>
       <c r="O14" s="16">
@@ -12467,25 +12467,25 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="21"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="32"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
@@ -12496,19 +12496,19 @@
       <c r="D20" s="10">
         <v>0</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="19">
         <v>1.8800000000000002E-3</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="19">
         <v>2.3500000000000001E-3</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="19">
         <v>3.1333333333333335E-3</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="19">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="19">
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="L20" s="11" t="s">
@@ -12519,30 +12519,30 @@
       <c r="O20" s="10">
         <v>0</v>
       </c>
-      <c r="P20" s="30">
+      <c r="P20" s="19">
         <v>1.8800000000000002E-3</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="Q20" s="19">
         <v>2.3500000000000001E-3</v>
       </c>
-      <c r="R20" s="30">
+      <c r="R20" s="19">
         <v>3.1333333333333335E-3</v>
       </c>
-      <c r="S20" s="30">
+      <c r="S20" s="19">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="T20" s="30">
+      <c r="T20" s="19">
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+      <c r="A21" s="33">
         <v>2</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="16">
@@ -12563,13 +12563,13 @@
       <c r="I21" s="6">
         <v>84166666.666666687</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="33">
         <v>2</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="M21" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="N21" s="18" t="s">
         <v>41</v>
       </c>
       <c r="O21" s="16">
@@ -12592,9 +12592,9 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="27" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="18" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="16">
@@ -12615,9 +12615,9 @@
       <c r="I22" s="6">
         <v>172649572.64957261</v>
       </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="27" t="s">
+      <c r="L22" s="33"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="18" t="s">
         <v>42</v>
       </c>
       <c r="O22" s="16">
@@ -12640,9 +12640,9 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="27" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="16">
@@ -12663,9 +12663,9 @@
       <c r="I23" s="6">
         <v>4455882.3529411741</v>
       </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="27" t="s">
+      <c r="L23" s="33"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="18" t="s">
         <v>43</v>
       </c>
       <c r="O23" s="16">
@@ -12688,9 +12688,9 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="27" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="16">
@@ -12711,9 +12711,9 @@
       <c r="I24" s="6">
         <v>75279503.105590045</v>
       </c>
-      <c r="L24" s="22"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="27" t="s">
+      <c r="L24" s="33"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="18" t="s">
         <v>44</v>
       </c>
       <c r="O24" s="16">
@@ -12736,9 +12736,9 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="27" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="16">
@@ -12759,9 +12759,9 @@
       <c r="I25" s="6">
         <v>3532329.6883823629</v>
       </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="27" t="s">
+      <c r="L25" s="33"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="18" t="s">
         <v>14</v>
       </c>
       <c r="O25" s="16">
@@ -12784,9 +12784,9 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="27" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="16">
@@ -12807,9 +12807,9 @@
       <c r="I26" s="6">
         <v>3963622.7136227135</v>
       </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="27" t="s">
+      <c r="L26" s="33"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="18" t="s">
         <v>45</v>
       </c>
       <c r="O26" s="16">
@@ -12832,9 +12832,9 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="27" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="16">
@@ -12855,9 +12855,9 @@
       <c r="I27" s="6">
         <v>2337962.9629629664</v>
       </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="27" t="s">
+      <c r="L27" s="33"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="18" t="s">
         <v>46</v>
       </c>
       <c r="O27" s="16">
@@ -12880,35 +12880,35 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="J30" s="39" t="s">
+      <c r="J30" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="35"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="42"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
-      <c r="O33" s="19" t="s">
+      <c r="O33" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="21"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="32"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
@@ -12916,22 +12916,22 @@
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="36">
-        <v>0</v>
-      </c>
-      <c r="E34" s="37">
+      <c r="D34" s="22">
+        <v>0</v>
+      </c>
+      <c r="E34" s="23">
         <v>1.8800000000000002E-3</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="23">
         <v>2.3500000000000001E-3</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="23">
         <v>3.1333333333333335E-3</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="23">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="23">
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="L34" s="11" t="s">
@@ -12942,30 +12942,30 @@
       <c r="O34" s="10">
         <v>0</v>
       </c>
-      <c r="P34" s="30">
+      <c r="P34" s="19">
         <v>1.8800000000000002E-3</v>
       </c>
-      <c r="Q34" s="30">
+      <c r="Q34" s="19">
         <v>2.3500000000000001E-3</v>
       </c>
-      <c r="R34" s="30">
+      <c r="R34" s="19">
         <v>3.1333333333333335E-3</v>
       </c>
-      <c r="S34" s="30">
+      <c r="S34" s="19">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="T34" s="38">
+      <c r="T34" s="24">
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+      <c r="A35" s="33">
         <v>1</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="15">
@@ -12986,13 +12986,13 @@
       <c r="I35" s="2">
         <v>7.999999999999996E-2</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="33">
         <v>1</v>
       </c>
-      <c r="M35" s="26" t="s">
+      <c r="M35" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="N35" s="27" t="s">
+      <c r="N35" s="18" t="s">
         <v>41</v>
       </c>
       <c r="O35" s="15">
@@ -13015,9 +13015,9 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="27" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="18" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="15">
@@ -13038,9 +13038,9 @@
       <c r="I36" s="2">
         <v>0.06</v>
       </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="27" t="s">
+      <c r="L36" s="33"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="18" t="s">
         <v>42</v>
       </c>
       <c r="O36" s="15">
@@ -13063,9 +13063,9 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="27" t="s">
+      <c r="A37" s="33"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="15">
@@ -13086,9 +13086,9 @@
       <c r="I37" s="2">
         <v>0.42999999999999972</v>
       </c>
-      <c r="L37" s="22"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="27" t="s">
+      <c r="L37" s="33"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="18" t="s">
         <v>43</v>
       </c>
       <c r="O37" s="15">
@@ -13111,9 +13111,9 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="27" t="s">
+      <c r="A38" s="33"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="15">
@@ -13134,9 +13134,9 @@
       <c r="I38" s="2">
         <v>0.12</v>
       </c>
-      <c r="L38" s="22"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="27" t="s">
+      <c r="L38" s="33"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="18" t="s">
         <v>44</v>
       </c>
       <c r="O38" s="15">
@@ -13159,9 +13159,9 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="27" t="s">
+      <c r="A39" s="33"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="15">
@@ -13182,9 +13182,9 @@
       <c r="I39" s="2">
         <v>0.80000000000000027</v>
       </c>
-      <c r="L39" s="22"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="27" t="s">
+      <c r="L39" s="33"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="18" t="s">
         <v>14</v>
       </c>
       <c r="O39" s="15">
@@ -13207,9 +13207,9 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="27" t="s">
+      <c r="A40" s="33"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="15">
@@ -13230,9 +13230,9 @@
       <c r="I40" s="2">
         <v>0.47999999999999976</v>
       </c>
-      <c r="L40" s="22"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="27" t="s">
+      <c r="L40" s="33"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="18" t="s">
         <v>45</v>
       </c>
       <c r="O40" s="15">
@@ -13255,9 +13255,9 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="27" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="15">
@@ -13278,9 +13278,9 @@
       <c r="I41" s="2">
         <v>0.5</v>
       </c>
-      <c r="L41" s="22"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="27" t="s">
+      <c r="L41" s="33"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="18" t="s">
         <v>46</v>
       </c>
       <c r="O41" s="15">
@@ -13306,25 +13306,25 @@
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="21"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="32"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
-      <c r="O46" s="19" t="s">
+      <c r="O46" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="21"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="32"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
@@ -13335,19 +13335,19 @@
       <c r="D47" s="10">
         <v>0</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="19">
         <v>1.8800000000000002E-3</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="19">
         <v>2.3500000000000001E-3</v>
       </c>
-      <c r="G47" s="30">
+      <c r="G47" s="19">
         <v>3.1333333333333335E-3</v>
       </c>
-      <c r="H47" s="30">
+      <c r="H47" s="19">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="I47" s="30">
+      <c r="I47" s="19">
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="L47" s="11" t="s">
@@ -13358,30 +13358,30 @@
       <c r="O47" s="10">
         <v>0</v>
       </c>
-      <c r="P47" s="30">
+      <c r="P47" s="19">
         <v>1.8800000000000002E-3</v>
       </c>
-      <c r="Q47" s="30">
+      <c r="Q47" s="19">
         <v>2.3500000000000001E-3</v>
       </c>
-      <c r="R47" s="30">
+      <c r="R47" s="19">
         <v>3.1333333333333335E-3</v>
       </c>
-      <c r="S47" s="30">
+      <c r="S47" s="19">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="T47" s="30">
+      <c r="T47" s="19">
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="22">
+      <c r="A48" s="33">
         <v>2</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="15">
@@ -13402,13 +13402,13 @@
       <c r="I48" s="2">
         <v>5.0000000000000017E-2</v>
       </c>
-      <c r="L48" s="22">
+      <c r="L48" s="33">
         <v>2</v>
       </c>
-      <c r="M48" s="26" t="s">
+      <c r="M48" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="N48" s="27" t="s">
+      <c r="N48" s="18" t="s">
         <v>41</v>
       </c>
       <c r="O48" s="15">
@@ -13431,9 +13431,9 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="27" t="s">
+      <c r="A49" s="33"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="18" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="15">
@@ -13454,9 +13454,9 @@
       <c r="I49" s="2">
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="L49" s="22"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="27" t="s">
+      <c r="L49" s="33"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="18" t="s">
         <v>42</v>
       </c>
       <c r="O49" s="15">
@@ -13479,9 +13479,9 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="27" t="s">
+      <c r="A50" s="33"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D50" s="15">
@@ -13502,9 +13502,9 @@
       <c r="I50" s="2">
         <v>0.30000000000000004</v>
       </c>
-      <c r="L50" s="22"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="27" t="s">
+      <c r="L50" s="33"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="18" t="s">
         <v>43</v>
       </c>
       <c r="O50" s="15">
@@ -13527,9 +13527,9 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="27" t="s">
+      <c r="A51" s="33"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D51" s="15">
@@ -13550,9 +13550,9 @@
       <c r="I51" s="2">
         <v>0.11999999999999997</v>
       </c>
-      <c r="L51" s="22"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="27" t="s">
+      <c r="L51" s="33"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="18" t="s">
         <v>44</v>
       </c>
       <c r="O51" s="15">
@@ -13575,9 +13575,9 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="27" t="s">
+      <c r="A52" s="33"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="15">
@@ -13598,9 +13598,9 @@
       <c r="I52" s="2">
         <v>1.0900000000000003</v>
       </c>
-      <c r="L52" s="22"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="27" t="s">
+      <c r="L52" s="33"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="18" t="s">
         <v>14</v>
       </c>
       <c r="O52" s="15">
@@ -13623,9 +13623,9 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="27" t="s">
+      <c r="A53" s="33"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D53" s="15">
@@ -13646,9 +13646,9 @@
       <c r="I53" s="2">
         <v>0.69</v>
       </c>
-      <c r="L53" s="22"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="27" t="s">
+      <c r="L53" s="33"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="18" t="s">
         <v>45</v>
       </c>
       <c r="O53" s="15">
@@ -13671,9 +13671,9 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="27" t="s">
+      <c r="A54" s="33"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="15">
@@ -13694,9 +13694,9 @@
       <c r="I54" s="2">
         <v>0.30000000000000027</v>
       </c>
-      <c r="L54" s="22"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="27" t="s">
+      <c r="L54" s="33"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="18" t="s">
         <v>46</v>
       </c>
       <c r="O54" s="15">
@@ -13720,6 +13720,21 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="L8:L14"/>
+    <mergeCell ref="M8:M14"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="L21:L27"/>
+    <mergeCell ref="M21:M27"/>
+    <mergeCell ref="D19:I19"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="D46:I46"/>
     <mergeCell ref="O46:T46"/>
@@ -13733,21 +13748,6 @@
     <mergeCell ref="O33:T33"/>
     <mergeCell ref="L35:L41"/>
     <mergeCell ref="M35:M41"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="L8:L14"/>
-    <mergeCell ref="M8:M14"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="L21:L27"/>
-    <mergeCell ref="M21:M27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
